--- a/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>63.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>63.71</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>519656</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合A</t>
+          <t>银河灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002053</t>
+          <t>519657</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合C</t>
+          <t>银河灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519656</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - A</t>
+          <t>诺安优势行业灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>58.77</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519657</t>
+          <t>002053</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>58.77</t>
-        </is>
-      </c>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -756,7 +757,6 @@
           <t>诺安优势行业灵活配置混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>41.07</t>
@@ -772,6 +772,100 @@
       </c>
       <c r="H5" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -871,4 +872,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -880,7 +881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,17 +892,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -911,14 +932,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -927,14 +970,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -943,13 +1008,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002095</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1218</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002096</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519656</t>
+          <t>002411</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - A</t>
+          <t>华夏新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>58.77</t>
+          <t>21.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0249</t>
+          <t>0.0701</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519657</t>
+          <t>160324</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - C</t>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>58.77</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0600</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -713,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>002232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合A</t>
+          <t>华夏新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>20.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -751,29 +719,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002053</t>
+          <t>002231</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合C</t>
+          <t>华夏新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>20.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -902,7 +915,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -932,36 +945,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002411</t>
+          <t>519656</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新机遇灵活配置混合A</t>
+          <t>银河灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>58.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0701</t>
+          <t>0.0249</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -970,36 +983,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160324</t>
+          <t>519657</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏磐晟灵活配置混合（LOF）</t>
+          <t>银河灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>58.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0600</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1008,36 +1021,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002232</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏新趋势灵活配置混合C</t>
+          <t>诺安优势行业灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>41.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1046,74 +1059,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002231</t>
+          <t>002053</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.04</t>
+          <t>诺安优势行业灵活配置混合C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>41.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008212</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1127,96 +1095,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.14</v>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -549,6 +566,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -794,7 +981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -888,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1089,7 +1276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/000967-盈峰环境.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -566,6 +583,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -981,7 +1130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1075,7 +1224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1276,7 +1425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
